--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdrynsk\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E197F9C-2407-4C2D-86FF-F5882820E54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,26 +37,29 @@
     <t>2025-04-26</t>
   </si>
   <si>
-    <t>Sala 1</t>
-  </si>
-  <si>
-    <t>Sala 2</t>
-  </si>
-  <si>
-    <t>https://example.com/1</t>
-  </si>
-  <si>
-    <t>https://example.com/2</t>
-  </si>
-  <si>
-    <t>https://example.com/1-next</t>
+    <t>Poznań I</t>
+  </si>
+  <si>
+    <t>Bieszczady I</t>
+  </si>
+  <si>
+    <t>Wp.pl</t>
+  </si>
+  <si>
+    <t>onet.pl</t>
+  </si>
+  <si>
+    <t>okopress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,26 +122,36 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +189,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -204,6 +223,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -238,9 +258,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,14 +434,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,44 +459,194 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B33" xr:uid="{65C84A3C-4F53-46EC-9B7D-C195CF93DFE4}">
+      <formula1>"Van,PC,Poznań I,Poznań II, Bieszczady I, Bieszczady II"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://example.com/1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://example.com/2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://example.com/1-next" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
